--- a/src/main/resources/static/data.xlsx
+++ b/src/main/resources/static/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gubonhun/32.구본훈/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gubonhun/spring/HamanBus/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413063F2-9B94-B44B-A6C9-C4F2180361FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C91ED94-DC20-8F44-99C6-C2E070CD10D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="117">
   <si>
     <t>창원, 남마산, 마산 → 삼칠, 대산 방면</t>
   </si>
@@ -438,9 +438,6 @@
     <t>113-80</t>
   </si>
   <si>
-    <t>10:05           (T/R앞)</t>
-  </si>
-  <si>
     <t>113-08</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
   </si>
   <si>
     <t>113-78</t>
-  </si>
-  <si>
-    <t>11:40                 (T/R앞)</t>
   </si>
   <si>
     <t>이     룡</t>
@@ -552,9 +546,6 @@
     <t>113-26</t>
   </si>
   <si>
-    <t>18:50            (T/R앞)</t>
-  </si>
-  <si>
     <t>113-54</t>
   </si>
   <si>
@@ -562,9 +553,6 @@
   </si>
   <si>
     <t>113-05</t>
-  </si>
-  <si>
-    <t>20:35                 (T/R앞)</t>
   </si>
   <si>
     <t>113-72</t>
@@ -1543,9 +1531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA41" sqref="AA41"/>
+      <selection pane="topRight" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1802,7 +1790,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>12</v>
@@ -2998,8 +2986,8 @@
       <c r="E27" s="32">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F27" s="45" t="s">
-        <v>71</v>
+      <c r="F27" s="45">
+        <v>0.4201388888888889</v>
       </c>
       <c r="G27" s="32">
         <v>0.42152777777777778</v>
@@ -3167,7 +3155,7 @@
     </row>
     <row r="30" spans="1:27" ht="13.5" customHeight="1">
       <c r="A30" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
@@ -3214,7 +3202,7 @@
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
       <c r="X30" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y30" s="46"/>
       <c r="Z30" s="34"/>
@@ -3222,7 +3210,7 @@
     </row>
     <row r="31" spans="1:27" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="27"/>
@@ -3271,7 +3259,7 @@
         <v>0.4902777777777777</v>
       </c>
       <c r="X31" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y31" s="33"/>
       <c r="Z31" s="34"/>
@@ -3279,7 +3267,7 @@
     </row>
     <row r="32" spans="1:27" ht="13.5" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
@@ -3314,7 +3302,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="X32" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y32" s="33"/>
       <c r="Z32" s="34"/>
@@ -3381,7 +3369,7 @@
     </row>
     <row r="34" spans="1:27" ht="13.5" customHeight="1">
       <c r="A34" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
@@ -3440,7 +3428,7 @@
     </row>
     <row r="35" spans="1:27" ht="21" customHeight="1">
       <c r="A35" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
@@ -3450,8 +3438,8 @@
       <c r="E35" s="32">
         <v>0.48263888888888884</v>
       </c>
-      <c r="F35" s="45" t="s">
-        <v>80</v>
+      <c r="F35" s="45">
+        <v>0.4861111111111111</v>
       </c>
       <c r="G35" s="32">
         <v>0.48749999999999999</v>
@@ -3495,7 +3483,7 @@
         <v>0.51180555555555551</v>
       </c>
       <c r="X35" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y35" s="35"/>
       <c r="Z35" s="34"/>
@@ -3503,7 +3491,7 @@
     </row>
     <row r="36" spans="1:27" ht="13.5" customHeight="1">
       <c r="A36" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="37">
         <v>0.47916666666666669</v>
@@ -3566,7 +3554,7 @@
     </row>
     <row r="37" spans="1:27" ht="13.5" customHeight="1">
       <c r="A37" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
@@ -3623,7 +3611,7 @@
     </row>
     <row r="38" spans="1:27" ht="13.5" customHeight="1">
       <c r="A38" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="27"/>
@@ -3674,7 +3662,7 @@
         <v>0.54513888888888895</v>
       </c>
       <c r="X38" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y38" s="35"/>
       <c r="Z38" s="34"/>
@@ -3741,7 +3729,7 @@
     </row>
     <row r="40" spans="1:27" ht="13.5" customHeight="1">
       <c r="A40" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="27"/>
@@ -3798,7 +3786,7 @@
     </row>
     <row r="41" spans="1:27" ht="13.5" customHeight="1">
       <c r="A41" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="27"/>
@@ -3845,7 +3833,7 @@
       <c r="V41" s="30"/>
       <c r="W41" s="30"/>
       <c r="X41" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y41" s="47"/>
       <c r="Z41" s="34"/>
@@ -3912,7 +3900,7 @@
     </row>
     <row r="43" spans="1:27" ht="13.5" customHeight="1">
       <c r="A43" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="27"/>
@@ -3951,7 +3939,7 @@
         <v>0.57708333333333328</v>
       </c>
       <c r="T43" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U43" s="32">
         <v>0.58124999999999993</v>
@@ -4028,7 +4016,7 @@
     </row>
     <row r="45" spans="1:27" ht="13.5" customHeight="1">
       <c r="A45" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="27"/>
@@ -4189,7 +4177,7 @@
     </row>
     <row r="48" spans="1:27" ht="13.5" customHeight="1">
       <c r="A48" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="27"/>
@@ -4217,7 +4205,7 @@
         <v>0.61249999999999993</v>
       </c>
       <c r="O48" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P48" s="32">
         <v>0.61527777777777781</v>
@@ -4226,7 +4214,7 @@
       <c r="R48" s="30"/>
       <c r="S48" s="30"/>
       <c r="T48" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U48" s="32">
         <v>0.61805555555555558</v>
@@ -4242,7 +4230,7 @@
     </row>
     <row r="49" spans="1:27" ht="13.5" customHeight="1">
       <c r="A49" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
@@ -4279,7 +4267,7 @@
         <v>0.63472222222222219</v>
       </c>
       <c r="T49" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U49" s="32">
         <v>0.63680555555555551</v>
@@ -4291,7 +4279,7 @@
         <v>0.64305555555555549</v>
       </c>
       <c r="X49" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="40"/>
       <c r="Z49" s="34"/>
@@ -4358,7 +4346,7 @@
     </row>
     <row r="51" spans="1:27" ht="13.5" customHeight="1">
       <c r="A51" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="27"/>
@@ -4415,7 +4403,7 @@
     </row>
     <row r="52" spans="1:27" ht="13.5" customHeight="1">
       <c r="A52" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="37">
         <v>0.62847222222222221</v>
@@ -4478,7 +4466,7 @@
     </row>
     <row r="53" spans="1:27" ht="13.5" customHeight="1">
       <c r="A53" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
@@ -4529,7 +4517,7 @@
         <v>0.67222222222222205</v>
       </c>
       <c r="X53" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y53" s="42"/>
       <c r="Z53" s="34"/>
@@ -4653,7 +4641,7 @@
     </row>
     <row r="56" spans="1:27" ht="13.5" customHeight="1">
       <c r="A56" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B56" s="37">
         <v>0.65625</v>
@@ -4702,11 +4690,11 @@
         <v>0.69513888888888875</v>
       </c>
       <c r="V56" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="W56" s="32"/>
       <c r="X56" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y56" s="42"/>
       <c r="Z56" s="34"/>
@@ -4714,7 +4702,7 @@
     </row>
     <row r="57" spans="1:27" ht="13.5" customHeight="1">
       <c r="A57" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="27"/>
@@ -4773,7 +4761,7 @@
     </row>
     <row r="58" spans="1:27" ht="13.5" customHeight="1">
       <c r="A58" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="27"/>
@@ -4824,7 +4812,7 @@
         <v>0.73124999999999996</v>
       </c>
       <c r="X58" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y58" s="40"/>
       <c r="Z58" s="48"/>
@@ -4891,7 +4879,7 @@
     </row>
     <row r="60" spans="1:27" ht="13.5" customHeight="1">
       <c r="A60" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="27"/>
@@ -4948,7 +4936,7 @@
     </row>
     <row r="61" spans="1:27" ht="13.5" customHeight="1">
       <c r="A61" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B61" s="37">
         <v>0.70833333333333337</v>
@@ -5007,7 +4995,7 @@
     </row>
     <row r="62" spans="1:27" ht="13.5" customHeight="1">
       <c r="A62" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="27"/>
@@ -5058,7 +5046,7 @@
         <v>0.74930555555555545</v>
       </c>
       <c r="X62" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y62" s="40"/>
       <c r="Z62" s="48"/>
@@ -5066,7 +5054,7 @@
     </row>
     <row r="63" spans="1:27" ht="13.5" customHeight="1">
       <c r="A63" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="27"/>
@@ -5101,7 +5089,7 @@
         <v>0.75902777777777775</v>
       </c>
       <c r="X63" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y63" s="40"/>
       <c r="Z63" s="48"/>
@@ -5109,7 +5097,7 @@
     </row>
     <row r="64" spans="1:27" ht="13.5" customHeight="1">
       <c r="A64" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="27"/>
@@ -5146,7 +5134,7 @@
         <v>0.75624999999999998</v>
       </c>
       <c r="T64" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U64" s="32">
         <v>0.7583333333333333</v>
@@ -5225,7 +5213,7 @@
     </row>
     <row r="66" spans="1:27" ht="13.5" customHeight="1">
       <c r="A66" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="27"/>
@@ -5274,7 +5262,7 @@
         <v>0.78263888888888877</v>
       </c>
       <c r="X66" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Y66" s="40"/>
       <c r="Z66" s="48"/>
@@ -5341,7 +5329,7 @@
     </row>
     <row r="68" spans="1:27" ht="13.5" customHeight="1">
       <c r="A68" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="27"/>
@@ -5392,7 +5380,7 @@
         <v>0.80069444444444438</v>
       </c>
       <c r="X68" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y68" s="40"/>
       <c r="Z68" s="48"/>
@@ -5459,7 +5447,7 @@
     </row>
     <row r="70" spans="1:27" ht="21" customHeight="1">
       <c r="A70" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="27"/>
@@ -5469,8 +5457,8 @@
       <c r="E70" s="32">
         <v>0.78124999999999989</v>
       </c>
-      <c r="F70" s="45" t="s">
-        <v>109</v>
+      <c r="F70" s="45">
+        <v>0.78472222222222221</v>
       </c>
       <c r="G70" s="32">
         <v>0.78611111111111109</v>
@@ -5514,7 +5502,7 @@
         <v>0.81041666666666656</v>
       </c>
       <c r="X70" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y70" s="35"/>
       <c r="Z70" s="48"/>
@@ -5522,7 +5510,7 @@
     </row>
     <row r="71" spans="1:27" ht="13.5" customHeight="1">
       <c r="A71" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="27"/>
@@ -5581,7 +5569,7 @@
     </row>
     <row r="72" spans="1:27" ht="13.5" customHeight="1">
       <c r="A72" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B72" s="37">
         <v>0.79166666666666663</v>
@@ -5630,11 +5618,11 @@
         <v>0.8291666666666665</v>
       </c>
       <c r="V72" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="W72" s="32"/>
       <c r="X72" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y72" s="40"/>
       <c r="Z72" s="48"/>
@@ -5699,7 +5687,7 @@
     </row>
     <row r="74" spans="1:27" ht="13.5" customHeight="1">
       <c r="A74" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="27"/>
@@ -5750,7 +5738,7 @@
         <v>0.84930555555555554</v>
       </c>
       <c r="X74" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y74" s="40"/>
       <c r="Z74" s="48"/>
@@ -5758,7 +5746,7 @@
     </row>
     <row r="75" spans="1:27" ht="13.5" customHeight="1">
       <c r="A75" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B75" s="37">
         <v>0.8125</v>
@@ -5817,7 +5805,7 @@
     </row>
     <row r="76" spans="1:27" ht="13.5" customHeight="1">
       <c r="A76" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="27"/>
@@ -5933,7 +5921,7 @@
     </row>
     <row r="78" spans="1:27" ht="13.5" customHeight="1">
       <c r="A78" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="27"/>
@@ -5988,7 +5976,7 @@
     </row>
     <row r="79" spans="1:27" ht="21" customHeight="1">
       <c r="A79" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="27"/>
@@ -5998,8 +5986,8 @@
       <c r="E79" s="32">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F79" s="45" t="s">
-        <v>113</v>
+      <c r="F79" s="45">
+        <v>0.85763888888888884</v>
       </c>
       <c r="G79" s="32">
         <v>0.85902777777777783</v>
@@ -6043,7 +6031,7 @@
         <v>0.88680555555555551</v>
       </c>
       <c r="X79" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y79" s="40"/>
       <c r="Z79" s="48"/>
@@ -6110,7 +6098,7 @@
     </row>
     <row r="81" spans="1:27" ht="13.5" customHeight="1">
       <c r="A81" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="27"/>
@@ -6155,7 +6143,7 @@
       <c r="V81" s="30"/>
       <c r="W81" s="30"/>
       <c r="X81" s="31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y81" s="40"/>
       <c r="Z81" s="48"/>
@@ -6222,7 +6210,7 @@
     </row>
     <row r="83" spans="1:27" ht="13.5" customHeight="1">
       <c r="A83" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="27"/>
@@ -6269,7 +6257,7 @@
       <c r="V83" s="30"/>
       <c r="W83" s="30"/>
       <c r="X83" s="31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Y83" s="40"/>
       <c r="Z83" s="48"/>
@@ -6277,7 +6265,7 @@
     </row>
     <row r="84" spans="1:27" ht="13.5" customHeight="1">
       <c r="A84" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B84" s="37">
         <v>0.88888888888888884</v>
@@ -6340,7 +6328,7 @@
     </row>
     <row r="85" spans="1:27" ht="13.5" customHeight="1">
       <c r="A85" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="27"/>
